--- a/Docs/Feature_UserStory.xlsx
+++ b/Docs/Feature_UserStory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OTUS\SportCompetition\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32803E52-55B8-43FB-B00A-20B4B7C9F973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEF3789-5DFD-4E8B-B5BE-636601698923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{03B19276-1FF4-4C4A-BB9A-A2DFEFD2E66D}"/>
   </bookViews>
@@ -191,6 +191,228 @@
     <t>Подача заявки для участия в состязании</t>
   </si>
   <si>
+    <t>Посетитель</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Как</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Посетитель
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>я хочу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> иметь возможность поиска мероприятий/состязаний по различным критериям (категория, дата проведения,..) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>чтобы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> прийти участвовать или посмотреть/поболеть в состязании</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Как</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Организатор
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>я хочу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> загружать необходимые документы по мероприятию/состязанию 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>чтобы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> подробно информировать участников (где, когда, критерии отбора,...)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Как</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Посетитель
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>я хочу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> иметь доступ к документации по выбранному мероприятию/состязанию 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>чтобы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> получить информацию (где, когда, правила участия,...)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -236,6 +458,428 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> отменить поданную заявку
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в ситуации когда</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> пользователь передумал участвовать</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Как </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Организатор
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>я хочу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> видеть список заявок с возможностью фильтрации (все, новые,...)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>чтобы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> оценить количество участников в состязании</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Как</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Организатор
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>я хочу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> подтверждать/отклонять выбранную заявку
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>чтобы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> сформировать состав участников мероприятия</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Как</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Пользователь
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>я хочу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> получать информацию о статусе моей заявки
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>чтобы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> быть в курсе ))</t>
+    </r>
+  </si>
+  <si>
+    <t>Story S1-01</t>
+  </si>
+  <si>
+    <t>Story S1-02</t>
+  </si>
+  <si>
+    <t>Story S1-03</t>
+  </si>
+  <si>
+    <t>Story S1-04</t>
+  </si>
+  <si>
+    <t>Story S1-05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FEATURE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ F-01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FEATURE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F-02</t>
+    </r>
+  </si>
+  <si>
+    <t>Story S2-01</t>
+  </si>
+  <si>
+    <t>Story S2-02</t>
+  </si>
+  <si>
+    <t>Story S2-03</t>
+  </si>
+  <si>
+    <t>Story S2-04</t>
+  </si>
+  <si>
+    <t>Story S2-05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FEATURE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F-0</t>
+    </r>
+  </si>
+  <si>
+    <t>Invironmen job</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Как</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Посетитель
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>я хочу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> зарегистироваться на сайте
 </t>
     </r>
@@ -260,303 +904,11 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> подать заяву для участия в состязании</t>
-    </r>
-  </si>
-  <si>
-    <t>Посетитель</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Как</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Посетитель
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>я хочу</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> зарегистироваться на сайте
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>чтобы</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> получить права Организатора </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Как</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Посетитель
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>я хочу</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> иметь возможность поиска мероприятий/состязаний по различным критериям (категория, дата проведения,..) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>чтобы</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> прийти участвовать или посмотреть/поболеть в состязании</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Как</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Организатор
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>я хочу</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> загружать необходимые документы по мероприятию/состязанию 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>чтобы</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> подробно информировать участников (где, когда, критерии отбора,...)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Как</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Посетитель
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>я хочу</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> иметь доступ к документации по выбранному мероприятию/состязанию 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>чтобы</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> получить информацию (где, когда, правила участия,...)</t>
-    </r>
+      <t xml:space="preserve"> получить права Пользователя или Организатора</t>
+    </r>
+  </si>
+  <si>
+    <t>Story S0-01</t>
   </si>
   <si>
     <r>
@@ -628,404 +980,15 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>участвовать в состязании</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Как</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Пользователь
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>я хочу</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> отменить поданную заявку
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>в ситуации когда</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> пользователь передумал участвовать</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Как </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Организатор
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>я хочу</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> видеть список заявок с возможностью фильтрации (все, новые,...)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>чтобы</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> оценить количество участников в состязании</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Как</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Организатор
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>я хочу</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> подтверждать/отклонять выбранную заявку
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>чтобы</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> сформировать состав участников мероприятия</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Как</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Пользователь
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>я хочу</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> получать информацию о статусе моей заявки
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>чтобы</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> быть в курсе ))</t>
-    </r>
-  </si>
-  <si>
-    <t>Story S1-01</t>
-  </si>
-  <si>
-    <t>Story S1-02</t>
-  </si>
-  <si>
-    <t>Story S1-03</t>
-  </si>
-  <si>
-    <t>Story S1-04</t>
-  </si>
-  <si>
-    <t>Story S1-05</t>
-  </si>
-  <si>
-    <t>Story S1-06</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FEATURE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- F-01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FEATURE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F-02</t>
-    </r>
-  </si>
-  <si>
-    <t>Story S2-01</t>
-  </si>
-  <si>
-    <t>Story S2-02</t>
-  </si>
-  <si>
-    <t>Story S2-03</t>
-  </si>
-  <si>
-    <t>Story S2-04</t>
-  </si>
-  <si>
-    <t>Story S2-05</t>
-  </si>
-  <si>
-    <t>Story S2-06</t>
+      <t>подать заявку на участие в состязании</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,8 +1046,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1103,8 +1074,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1186,17 +1169,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1214,21 +1253,28 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1239,6 +1285,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFEF"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
@@ -1655,69 +1702,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>236220</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Соединитель: изогнутый 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F550D754-7E23-429F-8AEF-8ADCA68DC613}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-392430" y="3463290"/>
-          <a:ext cx="5433060" cy="441960"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 99649"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1766,13 +1758,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>236220</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1821,13 +1813,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1876,13 +1868,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1931,13 +1923,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1985,22 +1977,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>251460</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Соединитель: изогнутый 62">
+        <xdr:cNvPr id="2" name="Соединитель: изогнутый 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB23F5AE-6B37-4752-B8AC-2F3403AEDE77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD67FBC2-62CB-4942-B18E-ACF5EBE53D43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,12 +2000,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-316230" y="9963150"/>
-          <a:ext cx="5318760" cy="434340"/>
+          <a:off x="2034540" y="1028700"/>
+          <a:ext cx="579120" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 99570"/>
+            <a:gd name="adj1" fmla="val 101316"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2340,10 +2332,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2364,206 +2356,212 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="10" t="s">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="22" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="3:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="13"/>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="25" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="3:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="8"/>
-      <c r="D26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="10"/>
+    <row r="26" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
+      <c r="D29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H39" s="16"/>
+    </row>
+    <row r="41" spans="3:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D34" s="2" t="s">
+      <c r="D41" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="2" t="s">
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="3:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="15"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D44" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D40" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
